--- a/PlantillaVtaCatadau1.xlsx
+++ b/PlantillaVtaCatadau1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nº expediente</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -486,7 +492,7 @@
     <col min="15" max="15" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="14.25" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,6 +537,12 @@
       </c>
       <c r="O1" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
